--- a/config/foxconfig/item.xlsx
+++ b/config/foxconfig/item.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\FoxCard\config\foxconfig\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF7524F-C00A-4EA4-90EB-66B5635A3231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>许天盈</author>
   </authors>
   <commentList>
-    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{30CE261B-5FDB-4900-AD2D-D85956229A4E}">
+    <comment ref="M4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{4D525174-D161-4A07-8B59-FC7373787737}">
+    <comment ref="N4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -660,20 +654,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="8.75" customWidth="1"/>
-    <col min="11" max="11" width="11.25" customWidth="1"/>
+    <col min="3" max="4" width="8.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -757,7 +751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -799,7 +793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -843,98 +837,107 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
       <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="7"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="7"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>

--- a/config/foxconfig/item.xlsx
+++ b/config/foxconfig/item.xlsx
@@ -30,7 +30,40 @@
     <author>许天盈</author>
   </authors>
   <commentList>
-    <comment ref="M4" authorId="0">
+    <comment ref="C4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu:
+1.小丑牌
+2.补充包
+3.塔罗牌
+4.星球牌
+5.幻灵牌</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+6.牌组
+7.标签(待定）
+8.小丑牌碎片(待开发)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,45 +91,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu:
-0.小丑牌
-1.补充包
-3.塔罗牌
-4.星球牌
-5.幻灵牌</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-6.牌组
-7.标签(待定）
-8.小丑牌碎片(待开发)</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -183,30 +183,50 @@
   </si>
   <si>
     <t>版本</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>version</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_enable</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始号是否携带</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,18 +248,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF6A9955"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF6A9955"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -276,6 +284,12 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -326,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -337,29 +351,126 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -655,67 +766,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="8.77734375" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="4" max="5" width="8.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -727,43 +842,46 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -792,164 +910,238 @@
       <c r="N3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="O3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>5</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5">
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A17">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  <conditionalFormatting sqref="A5 A8:A17">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5 B8:B21">
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/foxconfig/item.xlsx
+++ b/config/foxconfig/item.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="item|物品" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -370,57 +370,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -769,7 +719,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1120,25 +1070,25 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="duplicateValues" dxfId="11" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A8:A17">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 B8:B21">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
